--- a/Model Summary/GEN-NTSK-wRLS_parameters.xlsx
+++ b/Model Summary/GEN-NTSK-wRLS_parameters.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Theta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_vector</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Theta</t>
+          <t>std</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,17 +461,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>firing_degree</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
         </is>
       </c>
     </row>
@@ -481,50 +476,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.59497828]
- [0.50620313]
- [0.37389406]]</t>
+          <t>[[  1.00220493   0.34553833  -2.1684014 ]
+ [  0.34553833  20.76939884 -22.03702567]
+ [ -2.1684014  -22.03702567  27.32192128]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[ 0.00944208  0.01218167 -0.05141901  0.02802216]
- [ 0.01218167  0.36823549 -0.64959047  0.27880132]
- [-0.05141901 -0.64959047  1.37975771 -0.69839932]
- [ 0.02802216  0.27880132 -0.69839932  0.40911329]]</t>
+          <t>[[-19.01750586]
+ [ 35.17535632]
+ [  5.89074191]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.6815767 ]
+ [0.27104027]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[-1.90173842]
- [-2.37561109]
- [ 4.74421046]
- [ 0.79187455]]</t>
+          <t>[[0.12798663]
+ [0.11880446]]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>801</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1838464002308352</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[[0.25768474]
- [0.25640849]
- [0.30354471]]</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4805963552394412</v>
+        <v>4.099697326973372</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0007489102481948326</v>
       </c>
     </row>
     <row r="3">
@@ -533,50 +516,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.76889407]
- [0.69467557]
- [0.58812755]]</t>
+          <t>[[  1.44976764   0.20580759  -2.76591387]
+ [  0.20580759  32.69292199 -34.2283088 ]
+ [ -2.76591387 -34.2283088   41.34756735]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[ 0.22595533  0.18620552 -1.18634509  0.76490881]
- [ 0.18620552  0.65749309 -1.85416999  1.00826052]
- [-1.18634509 -1.85416999  8.1366563  -5.07888562]
- [ 0.76490881  1.00826052 -5.07888562  3.30472006]]</t>
+          <t>[[-19.00201799]
+ [ 34.81244438]
+ [  6.24172662]]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.66435056]
+ [0.21943536]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[[-1.46724101]
- [-1.64733284]
- [ 1.82738825]
- [ 2.52755709]]</t>
+          <t>[[0.18026837]
+ [0.12314601]]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>481</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2464775762968581</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[[0.17058675]
- [0.18139151]
- [0.23381483]]</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6443216982643617</v>
+        <v>1.770550668389854</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0003234344964398355</v>
       </c>
     </row>
     <row r="4">
@@ -585,50 +556,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.4116777 ]
- [0.34550923]
- [0.25533915]]</t>
+          <t>[[  0.79242493   0.27547524  -1.66108622]
+ [  0.27547524  13.22121787 -14.17265152]
+ [ -1.66108622 -14.17265152  17.97290219]]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[[ 0.00608992 -0.02625811  0.0310079  -0.02266709]
- [-0.02625811  1.3012805  -2.05012012  0.93040019]
- [ 0.0310079  -2.05012012  3.37845996 -1.60646551]
- [-0.02266709  0.93040019 -1.60646551  0.8627394 ]]</t>
+          <t>[[-19.02194967]
+ [ 35.40027795]
+ [  5.67229352]]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.71864014]
+ [0.31170116]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[[-1.93448642]
- [-2.76884431]
- [ 5.36519668]
- [ 0.67270666]]</t>
+          <t>[[0.12716608]
+ [0.09139085]]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>321</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01197302963276225</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[[0.23941678]
- [0.22290776]
- [0.18464351]]</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03129892342441554</v>
+        <v>7.459007217468665</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001362570575580881</v>
       </c>
     </row>
     <row r="5">
@@ -637,50 +596,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[0.99899919]
- [0.98337437]
- [0.95239534]]</t>
+          <t>[[  0.62166319   0.20720821  -1.32046753]
+ [  0.20720821   9.7177082  -10.39516648]
+ [ -1.32046753 -10.39516648  13.38068192]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[ 726.82342266 -242.79948108 -248.07258179 -251.60966935]
- [-242.79948108  716.1840777  -258.62046771 -229.5071908 ]
- [-248.07258179 -258.62046771  747.88970586 -240.68828092]
- [-251.60966935 -229.5071908  -240.68828092  753.18263674]]</t>
+          <t>[[-19.02335518]
+ [ 35.50460965]
+ [  5.56434853]]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.68613718]
+ [0.32197889]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[[ 0.87502834]
- [-0.21291597]
- [ 0.0482034 ]
- [ 0.32564465]]</t>
+          <t>[[0.11234438]
+ [0.08292011]]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[[0.00952363]
- [0.00888017]
- [0.00866938]]</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1e-10</v>
+        <v>11.51086182223951</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.002102741177381996</v>
       </c>
     </row>
     <row r="6">
@@ -689,50 +636,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[0.08685689]
- [0.07645327]
- [0.09671385]]</t>
+          <t>[[ 0.42790219  0.12455279 -0.87460399]
+ [ 0.12455279  6.04339958 -6.4422471 ]
+ [-0.87460399 -6.4422471   8.35164864]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[[   1.52544456  -18.5273226    18.03991867  -13.42840669]
- [ -18.5273226   296.95453862 -355.71500872  207.99622086]
- [  18.03991867 -355.71500872  570.66156617 -318.31748114]
- [ -13.42840669  207.99622086 -318.31748114  204.08734651]]</t>
+          <t>[[-19.02794546]
+ [ 35.61494823]
+ [  5.459795  ]]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.69066054]
+ [0.35849027]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[[-1.98089392]
- [-0.13246443]
- [ 0.69197646]
- [ 0.22449583]]</t>
+          <t>[[0.15032096]
+ [0.11089716]]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[[0.02319817]
- [0.02441904]
- [0.02729287]]</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1e-10</v>
+        <v>15.89723628999667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.002904020035143106</v>
       </c>
     </row>
     <row r="7">
@@ -741,50 +676,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[0.98413567]
- [0.99817924]
- [0.9898614 ]]</t>
+          <t>[[ 0.2486733   0.02651086 -0.45832637]
+ [ 0.02651086  2.56501145 -2.68646542]
+ [-0.45832637 -2.68646542  3.64198273]]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[ 632.50346331 -312.84074362 -208.7944918  -116.58921107]
- [-312.84074362  514.56871641 -205.39106821   11.23993687]
- [-208.7944918  -205.39106821  728.40017889 -319.65603969]
- [-116.58921107   11.23993687 -319.65603969  428.74381904]]</t>
+          <t>[[-19.02959617]
+ [ 35.7165372 ]
+ [  5.35756633]]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.6801494 ]
+ [0.39519382]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[[ 0.30574457]
- [-1.25547675]
- [ 0.42314285]
- [ 1.6938755 ]]</t>
+          <t>[[0.11771804]
+ [0.08946867]]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[[0.00772053]
- [0.01013799]
- [0.01218463]]</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1e-10</v>
+        <v>36.9449122924492</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.006748894181146987</v>
       </c>
     </row>
     <row r="8">
@@ -793,50 +716,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[0.03663049]
- [0.00175238]
- [0.02544989]]</t>
+          <t>[[ 0.0915215   0.02044159 -0.18242246]
+ [ 0.02044159  1.11365923 -1.17599849]
+ [-0.18242246 -1.17599849  1.5620877 ]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[  1.73247044 -33.92092758   2.2610193  -21.50973439]
- [-33.92092758 835.41089848  -4.43788446 175.3180578 ]
- [  2.2610193   -4.43788446 942.09310956 -93.90879573]
- [-21.50973439 175.3180578  -93.90879573 640.85832564]]</t>
+          <t>[[-19.03414882]
+ [ 35.76314165]
+ [  5.3176244 ]]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.63462492]
+ [0.40204581]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[[-1.89985684]
- [-0.74624122]
- [ 0.08107228]
- [ 0.8252611 ]]</t>
+          <t>[[0.17159566]
+ [0.12749581]]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="G8" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[[0.01183884]
- [0.01530268]
- [0.01401617]]</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1e-10</v>
+        <v>78.05290344694239</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01425827680209052</v>
       </c>
     </row>
     <row r="9">
@@ -845,50 +756,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[0.93956564]
- [0.96843857]
- [0.97455881]]</t>
+          <t>[[ 0.02385305  0.00898432 -0.05469608]
+ [ 0.00898432  0.45136575 -0.47377699]
+ [-0.05469608 -0.47377699  0.60063053]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[ 313.15845578 -258.48068855 -122.91313571   50.57394347]
- [-258.48068855  529.63042733 -204.58058192  -42.28770122]
- [-122.91313571 -204.58058192  700.28474172 -372.69600675]
- [  50.57394347  -42.28770122 -372.69600675  359.01994425]]</t>
+          <t>[[-19.03535775]
+ [ 35.78632646]
+ [  5.29576688]]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.48370961]
+ [0.32669691]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[[ 1.16616371]
- [-0.5340943 ]
- [ 0.11214104]
- [ 0.45933422]]</t>
+          <t>[[0.25547789]
+ [0.18764961]]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="G9" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[[0.01119665]
- [0.01626745]
- [0.02197886]]</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1e-10</v>
+        <v>203.9292512448205</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03725267842557902</v>
       </c>
     </row>
     <row r="10">
@@ -897,50 +796,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[0.90517044]
- [0.9021014 ]
- [0.8886803 ]]</t>
+          <t>[[ 0.01242754  0.00413878 -0.02924675]
+ [ 0.00413878  0.22619042 -0.23515195]
+ [-0.02924675 -0.23515195  0.30444992]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[ 123.43421169  -80.80301298  -55.24035494   -0.74284825]
- [ -80.80301298  235.58499985 -238.86560052   93.60505563]
- [ -55.24035494 -238.86560052  647.23162833 -351.46105217]
- [  -0.74284825   93.60505563 -351.46105217  262.27964708]]</t>
+          <t>[[-19.03464082]
+ [ 35.79361602]
+ [  5.28635924]]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.43207668]
+ [0.32618428]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[[-0.61852685]
- [ 0.02488526]
- [ 0.55081069]
- [ 1.42440814]]</t>
+          <t>[[0.23343408]
+ [0.17586494]]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="G10" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[[0.01560305]
- [0.01539509]
- [0.0211108 ]]</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1e-10</v>
+        <v>434.2621718965974</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07932863453039497</v>
       </c>
     </row>
     <row r="11">
@@ -949,50 +836,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[0.43299352]
- [0.44374126]
- [0.47612144]]</t>
+          <t>[[ 0.00973487  0.0019225  -0.02309187]
+ [ 0.0019225   0.1513481  -0.15433581]
+ [-0.02309187 -0.15433581  0.21116062]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[[ 2.32847422e-03 -2.79651811e-04 -1.92813943e-03 -9.76728506e-04]
- [-2.79651811e-04  2.35123861e-01 -3.94012984e-01  1.67464889e-01]
- [-1.92813943e-03 -3.94012984e-01  7.62101174e-01 -3.82611460e-01]
- [-9.76728506e-04  1.67464889e-01 -3.82611460e-01  2.28193795e-01]]</t>
+          <t>[[-19.03325777]
+ [ 35.79599546]
+ [  5.28032046]]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.39795316]
+ [0.34100682]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[[-1.90175036]
- [-2.36868633]
- [ 4.58727404]
- [ 0.9466062 ]]</t>
+          <t>[[0.19504068]
+ [0.14681342]]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>321</v>
+        <v>714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2920126856416227</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[[0.43394312]
- [0.43648821]
- [0.4006617 ]]</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7633558896276196</v>
+        <v>713.6033497716169</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1303571505813255</v>
       </c>
     </row>
     <row r="12">
@@ -1001,258 +876,358 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[0.74893286]
- [0.80831649]
- [0.77615163]]</t>
+          <t>[[ 0.00694726  0.00059758 -0.01583122]
+ [ 0.00059758  0.08592804 -0.08714757]
+ [-0.01583122 -0.08714757  0.12657886]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[   8.38360919    5.94771857  -31.98928574   16.80675865]
- [   5.94771857    6.01729298  -32.03567039   19.87439673]
- [ -31.98928574  -32.03567039  195.58608175 -131.76217328]
- [  16.80675865   19.87439673 -131.76217328   96.59133777]]</t>
+          <t>[[-19.03223454]
+ [ 35.79780039]
+ [  5.27609994]]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.40335625]
+ [0.38354019]]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[[ -0.45102316]
- [  0.894201  ]
- [-13.05754837]
- [ 14.29403865]]</t>
+          <t>[[0.17332293]
+ [0.13044803]]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>321</v>
+        <v>1275</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2345322697278982</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[[0.14151448]
- [0.04626274]
- [0.03940465]]</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6130952462258573</v>
+        <v>1252.889577937102</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2288710043544365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[0.00789734]
- [0.05954116]
- [0.15705687]]</t>
+          <t>[[ 0.0063978   0.00056681 -0.01368277]
+ [ 0.00056681  0.07715849 -0.07982052]
+ [-0.01368277 -0.07982052  0.11327508]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[ 2.74976747e+01 -7.60482316e+00 -5.78453803e+01 -1.52719495e+02]
- [-7.60482316e+00  9.99854462e+02 -5.30776702e-01 -1.25730519e+00]
- [-5.78453803e+01 -5.30776702e-01  9.96486626e+02 -9.14354979e+00]
- [-1.52719495e+02 -1.25730519e+00 -9.14354979e+00  9.75966312e+02]]</t>
+          <t>[[-19.03297515]
+ [ 35.79807775]
+ [  5.27779812]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.42583563]
+ [0.43750842]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[-1.40068758]
- [-0.01451071]
- [-0.11177067]
- [-0.29544569]]</t>
+          <t>[[0.18814792]
+ [0.1436415 ]]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>161</v>
+        <v>1299</v>
       </c>
       <c r="G13" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>[[7.87362918e-04]
- [5.80419655e-04]
- [9.05436431e-05]]</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1e-10</v>
+        <v>1244.862079812268</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2274045849742792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[0.05949527]
- [0.15156005]
- [0.25864691]]</t>
+          <t>[[ 0.01175753 -0.00165319 -0.01933841]
+ [-0.00165319  0.10866028 -0.11024833]
+ [-0.01933841 -0.11024833  0.15344302]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[  85.43192588  -54.38768236 -138.58985395 -236.53204928]
- [ -54.38768236  996.69013141   -8.3062915   -14.11571834]
- [-138.58985395   -8.3062915   978.94180977  -35.8884672 ]
- [-236.53204928  -14.11571834  -35.8884672   938.78765993]]</t>
+          <t>[[-19.0345698 ]
+ [ 35.79702835]
+ [  5.28236233]]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.52017475]
+ [0.54713498]]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[[-0.92244748]
- [-0.08334665]
- [-0.21264073]
- [-0.36304017]]</t>
+          <t>[[0.18282532]
+ [0.13793568]]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>161</v>
+        <v>974</v>
       </c>
       <c r="G14" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[[4.61943577e-13]
- [2.73194002e-13]
- [1.50801042e-14]]</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1e-10</v>
+        <v>698.0196193596848</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1275104000824984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[0.29229133]
- [0.44320279]
- [0.49960943]]</t>
+          <t>[[ 0.01833961 -0.00267401 -0.02888728]
+ [-0.00267401  0.2116482  -0.2164812 ]
+ [-0.02888728 -0.2164812   0.28259717]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[  0.14718505  -1.20293074   1.99721236  -1.35488754]
- [ -1.20293074  20.32090174 -32.85240725  19.5234628 ]
- [  1.99721236 -32.85240725  54.1655856  -32.63743673]
- [ -1.35488754  19.5234628  -32.63743673  20.16920168]]</t>
+          <t>[[-19.03605328]
+ [ 35.79417704]
+ [  5.28905163]]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.53797539]
+ [0.60101784]]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[[-1.81044752]
- [-2.54804154]
- [ 4.65650223]
- [ 0.90098209]]</t>
+          <t>[[0.21710504]
+ [0.16281414]]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>320</v>
+        <v>483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03115803812573931</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[[0.14139493]
- [0.1654881 ]
- [0.12478593]]</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0.08145081731728306</v>
+        <v>359.255646235574</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06562685333317199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[[ 0.02741753  0.00410487 -0.05390349]
+ [ 0.00410487  0.43514361 -0.4593493 ]
+ [-0.05390349 -0.4593493   0.5892565 ]]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[[-19.03522065]
+ [ 35.78783228]
+ [  5.29419319]]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[[0.45594725]
+ [0.5775953 ]]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[[0.24907623]
+ [0.18562855]]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>212</v>
+      </c>
+      <c r="G16" t="n">
+        <v>200.0049020313285</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03653579981014006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[[ 0.03751938  0.01265978 -0.08341167]
+ [ 0.01265978  0.6784328  -0.72570926]
+ [-0.08341167 -0.72570926  0.93145496]]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[[-19.03481272]
+ [ 35.78090952]
+ [  5.30028338]]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[[0.3772299 ]
+ [0.56108737]]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[[0.24762112]
+ [0.18376637]]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>132</v>
+      </c>
+      <c r="G17" t="n">
+        <v>131.9573732503438</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02410525003927809</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[[0.27849144]
- [0.43390772]
- [0.5       ]]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[[ 340.28871411 -183.69783315 -286.23018629 -329.83427524]
- [-183.69783315  948.80592852  -79.7346385   -91.86923128]
- [-286.23018629  -79.7346385   875.78264195 -143.13276684]
- [-329.83427524  -91.86923128 -143.13276684  835.06677839]]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[[ 0.15638804]
- [-0.09052825]
- [-0.14108436]
- [-0.16258598]]</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>161</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.825380659394303e-11</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[[1.63307493e-13]
- [1.02469799e-13]
- [2.14612184e-14]]</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1e-10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[[ 0.07392325  0.03659028 -0.18823979]
+ [ 0.03659028  1.33259475 -1.44525469]
+ [-0.18823979 -1.44525469  1.9271825 ]]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[[-19.03280992]
+ [ 35.76194876]
+ [  5.31397462]]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[[0.28487771]
+ [0.53131261]]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[[0.17839487]
+ [0.13518062]]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>73</v>
+      </c>
+      <c r="G18" t="n">
+        <v>64.98144904776862</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01187045512219599</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[[ 0.31009334  0.1774354  -0.80935254]
+ [ 0.1774354   5.85588056 -6.36469877]
+ [-0.80935254 -6.36469877  8.40938845]]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[[-19.03010918]
+ [ 35.62850355]
+ [  5.44415434]]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[[0.2646301 ]
+ [0.55456959]]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[[0.16860283]
+ [0.12193007]]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.93550530264658</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002545661765384575</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[[  1.38871698   0.77954578  -3.78164875]
+ [  0.77954578  24.85989746 -26.52602622]
+ [ -3.78164875 -26.52602622  35.94922967]]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[[-19.01382037]
+ [ 35.06076223]
+ [  5.96433171]]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[[0.21718454]
+ [0.56703988]]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[[0.0761397 ]
+ [0.05533239]]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7810583765791521</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0001426794653375993</v>
       </c>
     </row>
   </sheetData>
